--- a/unittest/excel001.xlsx
+++ b/unittest/excel001.xlsx
@@ -50,7 +50,7 @@
             <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t>ID</t>
+          <t>PrimaryKey</t>
         </r>
       </text>
     </comment>
@@ -540,7 +540,7 @@
   <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
